--- a/Graphs/12次高調波の比較.xlsx
+++ b/Graphs/12次高調波の比較.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -121,9 +121,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.6533801918827948E-2"/>
+          <c:x val="8.1599715289826055E-2"/>
           <c:y val="2.6331538001196888E-2"/>
-          <c:w val="0.91644171597194424"/>
+          <c:w val="0.90137580260094585"/>
           <c:h val="0.91093946290824956"/>
         </c:manualLayout>
       </c:layout>
@@ -134,7 +134,7 @@
           <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>変化前</c:v>
+            <c:v>測定1</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1354,7 +1354,7 @@
           <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>変化後</c:v>
+            <c:v>測定2</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2578,11 +2578,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="634238624"/>
-        <c:axId val="634246856"/>
+        <c:axId val="841864144"/>
+        <c:axId val="841864536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="634238624"/>
+        <c:axId val="841864144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2691,12 +2691,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="634246856"/>
+        <c:crossAx val="841864536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="634246856"/>
+        <c:axId val="841864536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2809,7 +2809,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="634238624"/>
+        <c:crossAx val="841864144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2827,10 +2827,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.83553044569993717"/>
-          <c:y val="0.40694157395496122"/>
-          <c:w val="7.1563088512241052E-2"/>
-          <c:h val="8.079051159897653E-2"/>
+          <c:x val="0.14500941619585686"/>
+          <c:y val="6.7025356121328636E-2"/>
+          <c:w val="0.128060263653484"/>
+          <c:h val="0.14781624469293222"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4157,11 +4157,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="647612000"/>
-        <c:axId val="647614744"/>
+        <c:axId val="841861008"/>
+        <c:axId val="841861400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="647612000"/>
+        <c:axId val="841861008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4203,7 +4203,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4270,12 +4269,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="647614744"/>
+        <c:crossAx val="841861400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="647614744"/>
+        <c:axId val="841861400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4321,7 +4320,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4388,7 +4386,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="647612000"/>
+        <c:crossAx val="841861008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5695,11 +5693,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="647615136"/>
-        <c:axId val="647606120"/>
+        <c:axId val="841862576"/>
+        <c:axId val="841863752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="647615136"/>
+        <c:axId val="841862576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5741,7 +5739,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5808,12 +5805,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="647606120"/>
+        <c:crossAx val="841863752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="647606120"/>
+        <c:axId val="841863752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5859,7 +5856,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5926,7 +5922,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="647615136"/>
+        <c:crossAx val="841862576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8042,7 +8038,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Graphs/12次高調波の比較.xlsx
+++ b/Graphs/12次高調波の比較.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,9 @@
     <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
     <sheet name="貼り付け用" sheetId="5" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet2!$A$2:$I$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">強!$A$1:$J$131</definedName>
@@ -101,7 +104,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -311,15 +314,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -338,8 +332,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -378,8 +381,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10922055646998928"/>
-          <c:y val="2.6331538001196888E-2"/>
+          <c:x val="0.10670957090815625"/>
+          <c:y val="1.6756433273488927E-2"/>
           <c:w val="0.87375496142078291"/>
           <c:h val="0.87742659636127174"/>
         </c:manualLayout>
@@ -2067,13 +2070,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="693898792"/>
-        <c:axId val="693896832"/>
+        <c:axId val="950362432"/>
+        <c:axId val="950365960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="693898792"/>
+        <c:axId val="950362432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="45"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2106,10 +2110,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="2000"/>
                   <a:t>XUV-IR delay[fs]</a:t>
                 </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="2000"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2165,7 +2169,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2180,12 +2184,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="693896832"/>
+        <c:crossAx val="950365960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="693896832"/>
+        <c:axId val="950365960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2220,18 +2224,25 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="2000"/>
                   <a:t>信号強度</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="2000"/>
                   <a:t>[a.u]</a:t>
                 </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="2000"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.3848035944659458E-2"/>
+              <c:y val="0.30776177214831985"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2283,7 +2294,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2298,7 +2309,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="693898792"/>
+        <c:crossAx val="950362432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2312,14 +2323,60 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.74890144381669799"/>
-          <c:y val="4.3087594302058739E-2"/>
-          <c:w val="0.15065913370998116"/>
-          <c:h val="0.22920463487844989"/>
+          <c:x val="0.87051470261132613"/>
+          <c:y val="0.15488730874529374"/>
+          <c:w val="0.10060896342759415"/>
+          <c:h val="0.14444422454374531"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3507,8 +3564,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="691084352"/>
-        <c:axId val="691084744"/>
+        <c:axId val="950367528"/>
+        <c:axId val="950367136"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -3774,7 +3831,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="691084352"/>
+        <c:axId val="950367528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3816,7 +3873,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3883,12 +3939,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="691084744"/>
+        <c:crossAx val="950367136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="691084744"/>
+        <c:axId val="950367136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3934,7 +3990,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4001,7 +4056,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="691084352"/>
+        <c:crossAx val="950367528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5169,8 +5224,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="775144256"/>
-        <c:axId val="775144648"/>
+        <c:axId val="950366352"/>
+        <c:axId val="950371840"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -5436,7 +5491,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="775144256"/>
+        <c:axId val="950366352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5478,7 +5533,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5545,12 +5599,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="775144648"/>
+        <c:crossAx val="950371840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="775144648"/>
+        <c:axId val="950371840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5596,7 +5650,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5663,7 +5716,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="775144256"/>
+        <c:crossAx val="950366352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6240,11 +6293,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1093282144"/>
-        <c:axId val="1093282928"/>
+        <c:axId val="950370272"/>
+        <c:axId val="950368704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1093282144"/>
+        <c:axId val="950370272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6286,7 +6339,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6353,12 +6405,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1093282928"/>
+        <c:crossAx val="950368704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1093282928"/>
+        <c:axId val="950368704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6404,7 +6456,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6471,7 +6522,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1093282144"/>
+        <c:crossAx val="950370272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8749,13 +8800,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
+      <xdr:colOff>542925</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
@@ -8888,6 +8939,2127 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="弱"/>
+      <sheetName val="強"/>
+      <sheetName val="Sheet3"/>
+      <sheetName val="貼り付け用"/>
+      <sheetName val="比較(ボツ）"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="B2">
+            <v>43.889999999999894</v>
+          </cell>
+          <cell r="H2">
+            <v>-0.15812241591860896</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>43.446666666666594</v>
+          </cell>
+          <cell r="H3">
+            <v>-4.9389611603387756E-2</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>43.003333333333195</v>
+          </cell>
+          <cell r="H4">
+            <v>3.8937572599057356E-2</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>42.559999999999896</v>
+          </cell>
+          <cell r="H5">
+            <v>7.7270987525201021E-2</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>41.894999999999889</v>
+          </cell>
+          <cell r="H6">
+            <v>-0.10346450490224442</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>41.229999999999897</v>
+          </cell>
+          <cell r="H7">
+            <v>-0.11643664911679494</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>40.786666666666598</v>
+          </cell>
+          <cell r="H8">
+            <v>-8.2038603783829517E-2</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>40.343333333333199</v>
+          </cell>
+          <cell r="H9">
+            <v>3.0629570124569943E-2</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>39.899999999999892</v>
+          </cell>
+          <cell r="H10">
+            <v>0.11458412144570589</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>39.234999999999893</v>
+          </cell>
+          <cell r="H11">
+            <v>-1.0473178959736198E-2</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>38.569999999999894</v>
+          </cell>
+          <cell r="H12">
+            <v>-0.15170922102602219</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13">
+            <v>38.126666666666594</v>
+          </cell>
+          <cell r="H13">
+            <v>-9.6322537862772784E-2</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14">
+            <v>37.683333333333195</v>
+          </cell>
+          <cell r="H14">
+            <v>-1.5283075129176277E-2</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15">
+            <v>37.239999999999888</v>
+          </cell>
+          <cell r="H15">
+            <v>0.16705571602141586</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16">
+            <v>36.574999999999896</v>
+          </cell>
+          <cell r="H16">
+            <v>1.2410266452448427E-2</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17">
+            <v>35.90999999999989</v>
+          </cell>
+          <cell r="H17">
+            <v>-0.18625302078836459</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18">
+            <v>35.577499999999894</v>
+          </cell>
+          <cell r="H18">
+            <v>-0.13057482876636123</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19">
+            <v>35.244999999999898</v>
+          </cell>
+          <cell r="H19">
+            <v>-8.5390955659499876E-2</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20">
+            <v>34.912499999999895</v>
+          </cell>
+          <cell r="H20">
+            <v>4.2581433333481661E-2</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21">
+            <v>34.579999999999892</v>
+          </cell>
+          <cell r="H21">
+            <v>0.2348315256817079</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22">
+            <v>33.914999999999893</v>
+          </cell>
+          <cell r="H22">
+            <v>-0.12722247689069088</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23">
+            <v>33.249999999999893</v>
+          </cell>
+          <cell r="H23">
+            <v>-0.15127195773789129</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24">
+            <v>32.806666666666594</v>
+          </cell>
+          <cell r="H24">
+            <v>-0.13421868950078553</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25">
+            <v>32.363333333333294</v>
+          </cell>
+          <cell r="H25">
+            <v>0.14869065791991737</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26">
+            <v>31.919999999999895</v>
+          </cell>
+          <cell r="H26">
+            <v>0.17507220963714934</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27">
+            <v>31.254999999999896</v>
+          </cell>
+          <cell r="H27">
+            <v>-0.13596774265330921</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28">
+            <v>30.589999999999897</v>
+          </cell>
+          <cell r="H28">
+            <v>-0.31830653380390134</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29">
+            <v>30.14666666666659</v>
+          </cell>
+          <cell r="H29">
+            <v>-0.18902235494652705</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30">
+            <v>29.703333333333291</v>
+          </cell>
+          <cell r="H30">
+            <v>-6.775466970488625E-2</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31">
+            <v>29.259999999999891</v>
+          </cell>
+          <cell r="H31">
+            <v>0.18862737156920772</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32">
+            <v>28.816666666666592</v>
+          </cell>
+          <cell r="H32">
+            <v>0.15874771354692846</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33">
+            <v>28.373333333333292</v>
+          </cell>
+          <cell r="H33">
+            <v>-0.18916810937590403</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34">
+            <v>27.929999999999893</v>
+          </cell>
+          <cell r="H34">
+            <v>-0.28026462773651162</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35">
+            <v>27.59749999999989</v>
+          </cell>
+          <cell r="H35">
+            <v>-0.18421245877708697</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36">
+            <v>27.264999999999894</v>
+          </cell>
+          <cell r="H36">
+            <v>6.3278562305011707E-2</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37">
+            <v>26.932499999999891</v>
+          </cell>
+          <cell r="H37">
+            <v>0.20801271067634503</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38">
+            <v>26.599999999999895</v>
+          </cell>
+          <cell r="H38">
+            <v>0.27156164188470489</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39">
+            <v>25.934999999999896</v>
+          </cell>
+          <cell r="H39">
+            <v>1.25560208818254E-2</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40">
+            <v>25.269999999999897</v>
+          </cell>
+          <cell r="H40">
+            <v>-0.27370567841454785</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41">
+            <v>24.937499999999893</v>
+          </cell>
+          <cell r="H41">
+            <v>-0.22094257498008396</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42">
+            <v>24.60499999999989</v>
+          </cell>
+          <cell r="H42">
+            <v>-3.3356624371920822E-2</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43">
+            <v>24.272499999999894</v>
+          </cell>
+          <cell r="H43">
+            <v>0.21063629040513052</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44">
+            <v>23.939999999999891</v>
+          </cell>
+          <cell r="H44">
+            <v>0.30639695050580124</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="B45">
+            <v>23.496666666666592</v>
+          </cell>
+          <cell r="H45">
+            <v>-2.169627002176305E-2</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="B46">
+            <v>23.053333333333292</v>
+          </cell>
+          <cell r="H46">
+            <v>-0.26394013164629071</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="B47">
+            <v>22.609999999999893</v>
+          </cell>
+          <cell r="H47">
+            <v>-0.30795796931813629</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48">
+            <v>22.166666666666593</v>
+          </cell>
+          <cell r="H48">
+            <v>-0.14660781599782816</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="B49">
+            <v>21.723333333333294</v>
+          </cell>
+          <cell r="H49">
+            <v>7.2606845785137916E-2</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="B50">
+            <v>21.279999999999895</v>
+          </cell>
+          <cell r="H50">
+            <v>0.36061759823403483</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="B51">
+            <v>20.836666666666595</v>
+          </cell>
+          <cell r="H51">
+            <v>0.2311876649472836</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="B52">
+            <v>20.393333333333295</v>
+          </cell>
+          <cell r="H52">
+            <v>-0.10739987449542267</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="B53">
+            <v>19.949999999999896</v>
+          </cell>
+          <cell r="H53">
+            <v>-0.35066401712558914</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="B54">
+            <v>19.683999999999891</v>
+          </cell>
+          <cell r="H54">
+            <v>-0.28405424290031289</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="B55">
+            <v>19.417999999999893</v>
+          </cell>
+          <cell r="H55">
+            <v>-0.15987146907113264</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="B56">
+            <v>19.151999999999894</v>
+          </cell>
+          <cell r="H56">
+            <v>0.10467282024807179</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="B57">
+            <v>18.885999999999896</v>
+          </cell>
+          <cell r="H57">
+            <v>0.29094698099184219</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="B58">
+            <v>18.619999999999891</v>
+          </cell>
+          <cell r="H58">
+            <v>0.34312706670879817</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="B59">
+            <v>18.176666666666591</v>
+          </cell>
+          <cell r="H59">
+            <v>6.6339405321928113E-2</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="B60">
+            <v>17.733333333333292</v>
+          </cell>
+          <cell r="H60">
+            <v>-0.28361697961218196</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="B61">
+            <v>17.289999999999893</v>
+          </cell>
+          <cell r="H61">
+            <v>-0.28230518974778923</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="B62">
+            <v>15.959999999999894</v>
+          </cell>
+          <cell r="H62">
+            <v>-0.32311642997334145</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="B63">
+            <v>15.627499999999891</v>
+          </cell>
+          <cell r="H63">
+            <v>-0.14412999069841964</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="B64">
+            <v>15.294999999999895</v>
+          </cell>
+          <cell r="H64">
+            <v>0.13907086558103721</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="B65">
+            <v>14.962499999999892</v>
+          </cell>
+          <cell r="H65">
+            <v>0.35099780589515467</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="B66">
+            <v>14.629999999999896</v>
+          </cell>
+          <cell r="H66">
+            <v>0.41061136751033628</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="B67">
+            <v>14.186666666666596</v>
+          </cell>
+          <cell r="H67">
+            <v>2.6402691672637753E-2</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="B68">
+            <v>13.743333333333297</v>
+          </cell>
+          <cell r="H68">
+            <v>-0.24557507354479224</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="B69">
+            <v>13.299999999999891</v>
+          </cell>
+          <cell r="H69">
+            <v>-0.33652583747602288</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="B70">
+            <v>13.033999999999892</v>
+          </cell>
+          <cell r="H70">
+            <v>-0.25402883044865665</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="B71">
+            <v>12.767999999999894</v>
+          </cell>
+          <cell r="H71">
+            <v>-0.23187415718335685</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="B72">
+            <v>12.501999999999896</v>
+          </cell>
+          <cell r="H72">
+            <v>4.0103608034073132E-2</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="B73">
+            <v>12.235999999999891</v>
+          </cell>
+          <cell r="H73">
+            <v>0.24386830030308018</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="B74">
+            <v>11.969999999999892</v>
+          </cell>
+          <cell r="H74">
+            <v>0.391080273973822</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="B75">
+            <v>11.703999999999894</v>
+          </cell>
+          <cell r="H75">
+            <v>0.2463461256024887</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="B76">
+            <v>11.437999999999896</v>
+          </cell>
+          <cell r="H76">
+            <v>-1.3242513117898667E-2</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="B77">
+            <v>11.17199999999989</v>
+          </cell>
+          <cell r="H77">
+            <v>-0.18450396763584093</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="B78">
+            <v>10.905999999999892</v>
+          </cell>
+          <cell r="H78">
+            <v>-0.31072730347629879</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="B79">
+            <v>10.639999999999894</v>
+          </cell>
+          <cell r="H79">
+            <v>-0.3236994476908493</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="B80">
+            <v>10.307499999999891</v>
+          </cell>
+          <cell r="H80">
+            <v>-0.21744446867503661</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="B81">
+            <v>9.9749999999999943</v>
+          </cell>
+          <cell r="H81">
+            <v>1.6637144904380619E-2</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="B82">
+            <v>9.6424999999998917</v>
+          </cell>
+          <cell r="H82">
+            <v>0.1307628631065498</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="B83">
+            <v>9.3099999999999952</v>
+          </cell>
+          <cell r="H83">
+            <v>0.37796237532989452</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="B84">
+            <v>9.0883333333332956</v>
+          </cell>
+          <cell r="H84">
+            <v>0.29867196574882171</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="B85">
+            <v>8.8666666666665961</v>
+          </cell>
+          <cell r="H85">
+            <v>0.28628283925177905</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="B86">
+            <v>8.644999999999996</v>
+          </cell>
+          <cell r="H86">
+            <v>-4.734904959211015E-2</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="B87">
+            <v>8.4233333333332965</v>
+          </cell>
+          <cell r="H87">
+            <v>-0.26481465822255257</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="B88">
+            <v>8.2016666666665969</v>
+          </cell>
+          <cell r="H88">
+            <v>-0.32326218440271837</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="B89">
+            <v>7.9799999999999969</v>
+          </cell>
+          <cell r="H89">
+            <v>-0.33229895902409068</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="B90">
+            <v>7.7139999999999915</v>
+          </cell>
+          <cell r="H90">
+            <v>-0.21394636236998929</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="B91">
+            <v>7.4479999999998938</v>
+          </cell>
+          <cell r="H91">
+            <v>-2.4028340891794606E-2</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="B92">
+            <v>7.1819999999999951</v>
+          </cell>
+          <cell r="H92">
+            <v>0.10438131138931785</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="B93">
+            <v>6.9159999999999968</v>
+          </cell>
+          <cell r="H93">
+            <v>0.37067465386104592</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="B94">
+            <v>6.6499999999999915</v>
+          </cell>
+          <cell r="H94">
+            <v>0.48611216192760787</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="B95">
+            <v>6.3839999999999932</v>
+          </cell>
+          <cell r="H95">
+            <v>0.27695455577165284</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="B96">
+            <v>6.117999999999995</v>
+          </cell>
+          <cell r="H96">
+            <v>0.28730312025741789</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="B97">
+            <v>5.8519999999999968</v>
+          </cell>
+          <cell r="H97">
+            <v>-9.6759801150903699E-2</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="B98">
+            <v>5.5859999999999914</v>
+          </cell>
+          <cell r="H98">
+            <v>-0.28288820746529714</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="B99">
+            <v>5.3199999999999932</v>
+          </cell>
+          <cell r="H99">
+            <v>-0.30679193388312054</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="B100">
+            <v>5.1299999999999955</v>
+          </cell>
+          <cell r="H100">
+            <v>-0.24790714441482381</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="B101">
+            <v>4.9399999999999906</v>
+          </cell>
+          <cell r="H101">
+            <v>-0.26394013164629071</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="B102">
+            <v>4.7499999999999929</v>
+          </cell>
+          <cell r="H102">
+            <v>-0.10506780362539112</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="B103">
+            <v>4.5599999999999952</v>
+          </cell>
+          <cell r="H103">
+            <v>7.8437022960216804E-2</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="B104">
+            <v>4.3699999999999903</v>
+          </cell>
+          <cell r="H104">
+            <v>0.23089615608852965</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="B105">
+            <v>4.1799999999999926</v>
+          </cell>
+          <cell r="H105">
+            <v>0.34881148945450013</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="B106">
+            <v>3.9899999999999949</v>
+          </cell>
+          <cell r="H106">
+            <v>0.46949615697863301</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="B107">
+            <v>3.7683333333332953</v>
+          </cell>
+          <cell r="H107">
+            <v>0.39982553973644036</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="B108">
+            <v>3.5466666666665958</v>
+          </cell>
+          <cell r="H108">
+            <v>0.2547998825063531</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="B109">
+            <v>3.3249999999999957</v>
+          </cell>
+          <cell r="H109">
+            <v>0.15029395664306405</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="B110">
+            <v>3.1033333333332962</v>
+          </cell>
+          <cell r="H110">
+            <v>-8.9763588540809042E-2</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="B111">
+            <v>2.8816666666665967</v>
+          </cell>
+          <cell r="H111">
+            <v>-0.25227977729613299</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="B112">
+            <v>2.6599999999999966</v>
+          </cell>
+          <cell r="H112">
+            <v>-0.29469431624483183</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="B113">
+            <v>2.5390909090908949</v>
+          </cell>
+          <cell r="H113">
+            <v>-0.2897386656460148</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="B114">
+            <v>2.4181818181818002</v>
+          </cell>
+          <cell r="H114">
+            <v>-0.25927598990622763</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="B115">
+            <v>2.2972727272726914</v>
+          </cell>
+          <cell r="H115">
+            <v>-0.24659535455043105</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="B116">
+            <v>2.1763636363635968</v>
+          </cell>
+          <cell r="H116">
+            <v>-0.11731117569305677</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="B117">
+            <v>2.0554545454544879</v>
+          </cell>
+          <cell r="H117">
+            <v>-2.9275500349365602E-2</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="B118">
+            <v>1.9345454545453933</v>
+          </cell>
+          <cell r="H118">
+            <v>6.9254493909467557E-2</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="B119">
+            <v>1.8136363636362987</v>
+          </cell>
+          <cell r="H119">
+            <v>0.33787990725122719</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="B120">
+            <v>1.6927272727271898</v>
+          </cell>
+          <cell r="H120">
+            <v>0.46191692665103046</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="B121">
+            <v>1.5718181818180952</v>
+          </cell>
+          <cell r="H121">
+            <v>0.43917923566822281</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="B122">
+            <v>1.4509090909089863</v>
+          </cell>
+          <cell r="H122">
+            <v>0.48858998722701641</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="B123">
+            <v>1.3299999999999912</v>
+          </cell>
+          <cell r="H123">
+            <v>0.49281686567894856</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="B124">
+            <v>1.1822222222221868</v>
+          </cell>
+          <cell r="H124">
+            <v>0.48319707334006839</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="B125">
+            <v>1.0344444444443965</v>
+          </cell>
+          <cell r="H125">
+            <v>0.25115602177192881</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="B126">
+            <v>0.88666666666659211</v>
+          </cell>
+          <cell r="H126">
+            <v>6.6339405321928113E-2</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="B127">
+            <v>0.73888888888878768</v>
+          </cell>
+          <cell r="H127">
+            <v>-3.9332555976376679E-2</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="B128">
+            <v>0.59111111111109693</v>
+          </cell>
+          <cell r="H128">
+            <v>-0.10113243403221286</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="B129">
+            <v>0.4433333333332925</v>
+          </cell>
+          <cell r="H129">
+            <v>-0.13727953251770195</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="B130">
+            <v>0.29555555555548807</v>
+          </cell>
+          <cell r="H130">
+            <v>-0.22823029644893256</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="B131">
+            <v>0.14777777777769785</v>
+          </cell>
+          <cell r="H131">
+            <v>-0.24849016213233169</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="B132">
+            <v>0</v>
+          </cell>
+          <cell r="H132">
+            <v>-0.3121848477700685</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2">
+        <row r="2">
+          <cell r="B2">
+            <v>43.889999999999894</v>
+          </cell>
+          <cell r="I2">
+            <v>-3.5738196709602099E-2</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>43.446666666666594</v>
+          </cell>
+          <cell r="I3">
+            <v>-0.11084307516487697</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>43.003333333333195</v>
+          </cell>
+          <cell r="I4">
+            <v>6.3320397133401637E-2</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>42.559999999999896</v>
+          </cell>
+          <cell r="I5">
+            <v>6.6564129425489921E-2</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>41.894999999999889</v>
+          </cell>
+          <cell r="I6">
+            <v>3.1506868884074245E-2</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>41.229999999999897</v>
+          </cell>
+          <cell r="I7">
+            <v>-5.5824385133687239E-2</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>40.786666666666598</v>
+          </cell>
+          <cell r="I8">
+            <v>-7.0421180448084514E-2</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>40.343333333333199</v>
+          </cell>
+          <cell r="I9">
+            <v>-1.8037665769862086E-3</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>39.899999999999892</v>
+          </cell>
+          <cell r="I10">
+            <v>4.4606556986738467E-2</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>39.234999999999893</v>
+          </cell>
+          <cell r="I11">
+            <v>8.1285683674198292E-2</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>38.569999999999894</v>
+          </cell>
+          <cell r="I12">
+            <v>-0.13916335325349391</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13">
+            <v>38.126666666666594</v>
+          </cell>
+          <cell r="I13">
+            <v>-8.1275207733149155E-2</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14">
+            <v>37.683333333333195</v>
+          </cell>
+          <cell r="I14">
+            <v>-4.3348491702578457E-2</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15">
+            <v>37.239999999999888</v>
+          </cell>
+          <cell r="I15">
+            <v>0.1058631937334826</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16">
+            <v>36.574999999999896</v>
+          </cell>
+          <cell r="I16">
+            <v>4.5854146329849348E-2</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17">
+            <v>35.90999999999989</v>
+          </cell>
+          <cell r="I17">
+            <v>-0.1422823266112711</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18">
+            <v>35.577499999999894</v>
+          </cell>
+          <cell r="I18">
+            <v>-0.18806885550344035</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19">
+            <v>35.244999999999898</v>
+          </cell>
+          <cell r="I19">
+            <v>-9.3002547558391421E-2</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20">
+            <v>34.912499999999895</v>
+          </cell>
+          <cell r="I20">
+            <v>0.23636103902288047</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21">
+            <v>34.579999999999892</v>
+          </cell>
+          <cell r="I21">
+            <v>0.15676483893240642</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22">
+            <v>33.914999999999893</v>
+          </cell>
+          <cell r="I22">
+            <v>-5.0584509892621553E-2</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23">
+            <v>33.249999999999893</v>
+          </cell>
+          <cell r="I23">
+            <v>-0.22923930382609933</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24">
+            <v>32.806666666666594</v>
+          </cell>
+          <cell r="I24">
+            <v>-7.9154305849860662E-2</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25">
+            <v>32.363333333333294</v>
+          </cell>
+          <cell r="I25">
+            <v>-2.4759410490226372E-2</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26">
+            <v>31.919999999999895</v>
+          </cell>
+          <cell r="I26">
+            <v>0.19494107283159931</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27">
+            <v>31.254999999999896</v>
+          </cell>
+          <cell r="I27">
+            <v>7.8540987119354352E-2</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28">
+            <v>30.589999999999897</v>
+          </cell>
+          <cell r="I28">
+            <v>-0.15226304135615815</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29">
+            <v>30.14666666666659</v>
+          </cell>
+          <cell r="I29">
+            <v>-0.18781933763481817</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30">
+            <v>29.703333333333291</v>
+          </cell>
+          <cell r="I30">
+            <v>-7.4787743148972588E-2</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31">
+            <v>29.259999999999891</v>
+          </cell>
+          <cell r="I31">
+            <v>7.5546772695888248E-2</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32">
+            <v>28.816666666666592</v>
+          </cell>
+          <cell r="I32">
+            <v>0.20891407347444116</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33">
+            <v>28.373333333333292</v>
+          </cell>
+          <cell r="I33">
+            <v>-7.2666841265684096E-2</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34">
+            <v>27.929999999999893</v>
+          </cell>
+          <cell r="I34">
+            <v>-0.12494083474202991</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35">
+            <v>27.59749999999989</v>
+          </cell>
+          <cell r="I35">
+            <v>-0.17035308683126588</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36">
+            <v>27.264999999999894</v>
+          </cell>
+          <cell r="I36">
+            <v>-9.8491940668079286E-2</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37">
+            <v>26.932499999999891</v>
+          </cell>
+          <cell r="I37">
+            <v>0.10573843479917151</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38">
+            <v>26.599999999999895</v>
+          </cell>
+          <cell r="I38">
+            <v>0.17897192923978006</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39">
+            <v>25.934999999999896</v>
+          </cell>
+          <cell r="I39">
+            <v>-2.5258446227470723E-2</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40">
+            <v>25.269999999999897</v>
+          </cell>
+          <cell r="I40">
+            <v>-0.23984381324254181</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41">
+            <v>24.937499999999893</v>
+          </cell>
+          <cell r="I41">
+            <v>-0.18881740910930689</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42">
+            <v>24.60499999999989</v>
+          </cell>
+          <cell r="I42">
+            <v>-0.10186043189447866</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43">
+            <v>24.272499999999894</v>
+          </cell>
+          <cell r="I43">
+            <v>0.16150567843622776</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44">
+            <v>23.939999999999891</v>
+          </cell>
+          <cell r="I44">
+            <v>0.27079450489274071</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="B45">
+            <v>23.496666666666592</v>
+          </cell>
+          <cell r="I45">
+            <v>0.15015261541391878</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="B46">
+            <v>23.053333333333292</v>
+          </cell>
+          <cell r="I46">
+            <v>-0.13454727268398367</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="B47">
+            <v>22.609999999999893</v>
+          </cell>
+          <cell r="I47">
+            <v>-0.21776148186947925</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48">
+            <v>22.166666666666593</v>
+          </cell>
+          <cell r="I48">
+            <v>-0.1157086736030094</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="B49">
+            <v>21.723333333333294</v>
+          </cell>
+          <cell r="I49">
+            <v>4.3483726577938676E-2</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="B50">
+            <v>21.279999999999895</v>
+          </cell>
+          <cell r="I50">
+            <v>0.15439441918049576</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="B51">
+            <v>20.836666666666595</v>
+          </cell>
+          <cell r="I51">
+            <v>0.26730125473203026</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="B52">
+            <v>20.393333333333295</v>
+          </cell>
+          <cell r="I52">
+            <v>9.4510130711173604E-2</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="B53">
+            <v>19.949999999999896</v>
+          </cell>
+          <cell r="I53">
+            <v>-0.19780005237970522</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="B54">
+            <v>19.683999999999891</v>
+          </cell>
+          <cell r="I54">
+            <v>-0.20690745458441462</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="B55">
+            <v>19.417999999999893</v>
+          </cell>
+          <cell r="I55">
+            <v>-0.20478655270112611</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="B56">
+            <v>19.151999999999894</v>
+          </cell>
+          <cell r="I56">
+            <v>-3.2868741220447077E-2</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="B57">
+            <v>18.885999999999896</v>
+          </cell>
+          <cell r="I57">
+            <v>0.16524844646556042</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="B58">
+            <v>18.619999999999891</v>
+          </cell>
+          <cell r="I58">
+            <v>0.25669674531558778</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="B59">
+            <v>18.176666666666591</v>
+          </cell>
+          <cell r="I59">
+            <v>9.299778576700609E-3</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="B60">
+            <v>17.733333333333292</v>
+          </cell>
+          <cell r="I60">
+            <v>-0.12494083474202991</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="B61">
+            <v>17.289999999999893</v>
+          </cell>
+          <cell r="I61">
+            <v>-0.23847146496511984</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="B62">
+            <v>15.959999999999894</v>
+          </cell>
+          <cell r="I62">
+            <v>-0.21576533892050184</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="B63">
+            <v>15.627499999999891</v>
+          </cell>
+          <cell r="I63">
+            <v>-0.11396204852265418</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="B64">
+            <v>15.294999999999895</v>
+          </cell>
+          <cell r="I64">
+            <v>9.0517844813218798E-2</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="B65">
+            <v>14.962499999999892</v>
+          </cell>
+          <cell r="I65">
+            <v>0.16711983048022672</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="B66">
+            <v>14.629999999999896</v>
+          </cell>
+          <cell r="I66">
+            <v>0.30946977452917795</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="B67">
+            <v>14.186666666666596</v>
+          </cell>
+          <cell r="I67">
+            <v>0.19356872455417734</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="B68">
+            <v>13.743333333333297</v>
+          </cell>
+          <cell r="I68">
+            <v>-8.6140806171281586E-2</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="B69">
+            <v>13.299999999999891</v>
+          </cell>
+          <cell r="I69">
+            <v>-0.20366372229232632</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="B70">
+            <v>13.033999999999892</v>
+          </cell>
+          <cell r="I70">
+            <v>-0.25182067093640625</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="B71">
+            <v>12.767999999999894</v>
+          </cell>
+          <cell r="I71">
+            <v>-0.17272350658317653</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="B72">
+            <v>12.501999999999896</v>
+          </cell>
+          <cell r="I72">
+            <v>-8.2398038141948945E-2</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="B73">
+            <v>12.235999999999891</v>
+          </cell>
+          <cell r="I73">
+            <v>0.13830051665436544</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="B74">
+            <v>11.969999999999892</v>
+          </cell>
+          <cell r="I74">
+            <v>0.29462346134615852</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="B75">
+            <v>11.703999999999894</v>
+          </cell>
+          <cell r="I75">
+            <v>0.35363443727530303</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="B76">
+            <v>11.437999999999896</v>
+          </cell>
+          <cell r="I76">
+            <v>0.13904907026023197</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="B77">
+            <v>11.17199999999989</v>
+          </cell>
+          <cell r="I77">
+            <v>-6.9298350039284723E-2</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="B78">
+            <v>10.905999999999892</v>
+          </cell>
+          <cell r="I78">
+            <v>-0.21514154424894641</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="B79">
+            <v>10.639999999999894</v>
+          </cell>
+          <cell r="I79">
+            <v>-0.2091531154020142</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="B80">
+            <v>10.307499999999891</v>
+          </cell>
+          <cell r="I80">
+            <v>-0.19580390943072778</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="B81">
+            <v>9.9749999999999943</v>
+          </cell>
+          <cell r="I81">
+            <v>-6.7676483893240588E-2</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="B82">
+            <v>9.6424999999998917</v>
+          </cell>
+          <cell r="I82">
+            <v>0.1253255874860123</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="B83">
+            <v>9.3099999999999952</v>
+          </cell>
+          <cell r="I83">
+            <v>0.24284850360705704</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="B84">
+            <v>9.0883333333332956</v>
+          </cell>
+          <cell r="I84">
+            <v>0.35226208899788108</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="B85">
+            <v>8.8666666666665961</v>
+          </cell>
+          <cell r="I85">
+            <v>0.29350063093735873</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="B86">
+            <v>8.644999999999996</v>
+          </cell>
+          <cell r="I86">
+            <v>-1.9893812052093944E-2</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="B87">
+            <v>8.4233333333332965</v>
+          </cell>
+          <cell r="I87">
+            <v>-0.13629389776433889</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="B88">
+            <v>8.2016666666665969</v>
+          </cell>
+          <cell r="I88">
+            <v>-0.26878788600271419</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="B89">
+            <v>7.9799999999999969</v>
+          </cell>
+          <cell r="I89">
+            <v>-0.27065927001738049</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="B90">
+            <v>7.7139999999999915</v>
+          </cell>
+          <cell r="I90">
+            <v>-0.21189781195685814</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="B91">
+            <v>7.4479999999998938</v>
+          </cell>
+          <cell r="I91">
+            <v>-7.5162019951905856E-2</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="B92">
+            <v>7.1819999999999951</v>
+          </cell>
+          <cell r="I92">
+            <v>8.7897907192685948E-2</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="B93">
+            <v>6.9159999999999968</v>
+          </cell>
+          <cell r="I93">
+            <v>0.23049736911025934</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="B94">
+            <v>6.6499999999999915</v>
+          </cell>
+          <cell r="I94">
+            <v>0.3460241422823267</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="B95">
+            <v>6.3839999999999932</v>
+          </cell>
+          <cell r="I95">
+            <v>0.26542987071736396</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="B96">
+            <v>6.117999999999995</v>
+          </cell>
+          <cell r="I96">
+            <v>0.14740791885907484</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="B97">
+            <v>5.8519999999999968</v>
+          </cell>
+          <cell r="I97">
+            <v>6.3195638199090548E-2</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="B98">
+            <v>5.5859999999999914</v>
+          </cell>
+          <cell r="I98">
+            <v>-0.15962381848051233</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="B99">
+            <v>5.3199999999999932</v>
+          </cell>
+          <cell r="I99">
+            <v>-0.2902464227042213</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="B100">
+            <v>5.1299999999999955</v>
+          </cell>
+          <cell r="I100">
+            <v>-0.20977691007356963</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="B101">
+            <v>4.9399999999999906</v>
+          </cell>
+          <cell r="I101">
+            <v>-0.26342325182733739</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="B102">
+            <v>4.7499999999999929</v>
+          </cell>
+          <cell r="I102">
+            <v>-0.10772410180709978</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="B103">
+            <v>4.5599999999999952</v>
+          </cell>
+          <cell r="I103">
+            <v>6.6798409561677641E-3</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="B104">
+            <v>4.3699999999999903</v>
+          </cell>
+          <cell r="I104">
+            <v>0.12021047117925769</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="B105">
+            <v>4.1799999999999926</v>
+          </cell>
+          <cell r="I105">
+            <v>0.24484464655603444</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="B106">
+            <v>3.9899999999999949</v>
+          </cell>
+          <cell r="I106">
+            <v>0.30410514035380115</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="B107">
+            <v>3.7683333333332953</v>
+          </cell>
+          <cell r="I107">
+            <v>0.39505440346658421</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="B108">
+            <v>3.5466666666665958</v>
+          </cell>
+          <cell r="I108">
+            <v>0.26393276350563089</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="B109">
+            <v>3.3249999999999957</v>
+          </cell>
+          <cell r="I109">
+            <v>9.0767362681840963E-2</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="B110">
+            <v>3.1033333333332962</v>
+          </cell>
+          <cell r="I110">
+            <v>-8.8635984857503347E-2</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="B111">
+            <v>2.8816666666665967</v>
+          </cell>
+          <cell r="I111">
+            <v>-0.18008428370753074</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="B112">
+            <v>2.6599999999999966</v>
+          </cell>
+          <cell r="I112">
+            <v>-0.25169591200209512</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="B113">
+            <v>2.5390909090908949</v>
+          </cell>
+          <cell r="I113">
+            <v>-0.27951715435346774</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="B114">
+            <v>2.4181818181818002</v>
+          </cell>
+          <cell r="I114">
+            <v>-0.28325992238280034</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="B115">
+            <v>2.2972727272726914</v>
+          </cell>
+          <cell r="I115">
+            <v>-0.235851527344587</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="B116">
+            <v>2.1763636363635968</v>
+          </cell>
+          <cell r="I116">
+            <v>-0.14016142472798263</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="B117">
+            <v>2.0554545454544879</v>
+          </cell>
+          <cell r="I117">
+            <v>-6.9048832170662558E-2</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="B118">
+            <v>1.9345454545453933</v>
+          </cell>
+          <cell r="I118">
+            <v>7.6669603104688039E-2</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="B119">
+            <v>1.8136363636362987</v>
+          </cell>
+          <cell r="I119">
+            <v>0.21078545748910746</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="B120">
+            <v>1.6927272727271898</v>
+          </cell>
+          <cell r="I120">
+            <v>0.31720482845646542</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="B121">
+            <v>1.5718181818180952</v>
+          </cell>
+          <cell r="I121">
+            <v>0.41389300254755845</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="B122">
+            <v>1.4509090909089863</v>
+          </cell>
+          <cell r="I122">
+            <v>0.3518878121949478</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="B123">
+            <v>1.3299999999999912</v>
+          </cell>
+          <cell r="I123">
+            <v>0.33866336515797252</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="B124">
+            <v>1.1822222222221868</v>
+          </cell>
+          <cell r="I124">
+            <v>0.29637008642651375</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="B125">
+            <v>1.0344444444443965</v>
+          </cell>
+          <cell r="I125">
+            <v>0.26967167448394092</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="B126">
+            <v>0.88666666666659211</v>
+          </cell>
+          <cell r="I126">
+            <v>0.1284445608437895</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="B127">
+            <v>0.73888888888878768</v>
+          </cell>
+          <cell r="I127">
+            <v>-3.9231446870312561E-2</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="B128">
+            <v>0.59111111111109693</v>
+          </cell>
+          <cell r="I128">
+            <v>-0.1331749244065617</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="B129">
+            <v>0.4433333333332925</v>
+          </cell>
+          <cell r="I129">
+            <v>-0.26254993928715981</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="B130">
+            <v>0.29555555555548807</v>
+          </cell>
+          <cell r="I130">
+            <v>-0.27490107378395751</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="B131">
+            <v>0.14777777777769785</v>
+          </cell>
+          <cell r="I131">
+            <v>-0.27103354682031378</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="B132">
+            <v>0</v>
+          </cell>
+          <cell r="I132">
+            <v>-0.25543868003142778</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9179,8 +11351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16371,1100 +18543,1100 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="4" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="18"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="15"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="7">
+      <c r="A3" s="4">
         <v>163</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="5">
         <v>0</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="5">
         <v>-0.27591175025078607</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="6">
         <f>ABS($C4-$C3)</f>
         <v>0.54971237752841839</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="11">
         <v>162</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="8">
         <v>0.14777777777769785</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="8">
         <v>-0.3405605674750703</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="6">
         <f>ABS($G3-$G4)</f>
         <v>0.53093100636194612</v>
       </c>
-      <c r="I3" s="19">
-        <f>D3/H3</f>
+      <c r="I3" s="16">
+        <f t="shared" ref="I3:I34" si="0">D3/H3</f>
         <v>1.0353744101237679</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="7">
+      <c r="A4" s="4">
         <v>154</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="5">
         <v>1.3299999999999912</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="5">
         <v>0.27380062727763232</v>
       </c>
-      <c r="D4" s="9">
-        <f t="shared" ref="D4:D34" si="0">ABS($C5-$C4)</f>
+      <c r="D4" s="6">
+        <f t="shared" ref="D4:D34" si="1">ABS($C5-$C4)</f>
         <v>0.55387018373021479</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="4">
         <v>154</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="5">
         <v>1.3299999999999912</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="5">
         <v>0.19037043888687577</v>
       </c>
-      <c r="H4" s="9">
-        <f t="shared" ref="H4:H34" si="1">ABS($G4-$G5)</f>
+      <c r="H4" s="6">
+        <f t="shared" ref="H4:H34" si="2">ABS($G4-$G5)</f>
         <v>0.44811199469116514</v>
       </c>
-      <c r="I4" s="19">
-        <f>D4/H4</f>
+      <c r="I4" s="16">
+        <f t="shared" si="0"/>
         <v>1.2360083869478595</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="10">
+      <c r="A5" s="7">
         <v>144</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="8">
         <v>2.5390909090908949</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="8">
         <v>-0.28006955645258247</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="6">
+        <f t="shared" si="1"/>
+        <v>0.5901564924004381</v>
+      </c>
+      <c r="E5" s="4">
+        <v>143</v>
+      </c>
+      <c r="F5" s="8">
+        <v>2.5390909090908949</v>
+      </c>
+      <c r="G5" s="5">
+        <v>-0.25774155580428937</v>
+      </c>
+      <c r="H5" s="6">
+        <f t="shared" si="2"/>
+        <v>0.44933482573596861</v>
+      </c>
+      <c r="I5" s="16">
         <f t="shared" si="0"/>
-        <v>0.5901564924004381</v>
-      </c>
-      <c r="E5" s="7">
-        <v>143</v>
-      </c>
-      <c r="F5" s="11">
-        <v>2.5390909090908949</v>
-      </c>
-      <c r="G5" s="8">
-        <v>-0.25774155580428937</v>
-      </c>
-      <c r="H5" s="9">
+        <v>1.3134002943880807</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="4">
+        <v>137</v>
+      </c>
+      <c r="B6" s="5">
+        <v>3.9899999999999949</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.31008693594785569</v>
+      </c>
+      <c r="D6" s="6">
         <f t="shared" si="1"/>
-        <v>0.44933482573596861</v>
-      </c>
-      <c r="I5" s="19">
-        <f>D5/H5</f>
-        <v>1.3134002943880807</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="7">
-        <v>137</v>
-      </c>
-      <c r="B6" s="8">
-        <v>3.9899999999999949</v>
-      </c>
-      <c r="C6" s="8">
-        <v>0.31008693594785569</v>
-      </c>
-      <c r="D6" s="9">
+        <v>0.62959265425384059</v>
+      </c>
+      <c r="E6" s="11">
+        <v>136</v>
+      </c>
+      <c r="F6" s="8">
+        <v>4.1799999999999926</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0.19159326993167924</v>
+      </c>
+      <c r="H6" s="6">
+        <f t="shared" si="2"/>
+        <v>0.44133084071543671</v>
+      </c>
+      <c r="I6" s="16">
         <f t="shared" si="0"/>
-        <v>0.62959265425384059</v>
-      </c>
-      <c r="E6" s="14">
-        <v>136</v>
-      </c>
-      <c r="F6" s="11">
-        <v>4.1799999999999926</v>
-      </c>
-      <c r="G6" s="11">
-        <v>0.19159326993167924</v>
-      </c>
-      <c r="H6" s="9">
+        <v>1.4265775154829756</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="4">
+        <v>130</v>
+      </c>
+      <c r="B7" s="5">
+        <v>5.3199999999999932</v>
+      </c>
+      <c r="C7" s="5">
+        <v>-0.31950571830598495</v>
+      </c>
+      <c r="D7" s="6">
         <f t="shared" si="1"/>
-        <v>0.44133084071543671</v>
-      </c>
-      <c r="I6" s="19">
-        <f>D6/H6</f>
-        <v>1.4265775154829756</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="7">
-        <v>130</v>
-      </c>
-      <c r="B7" s="8">
-        <v>5.3199999999999932</v>
-      </c>
-      <c r="C7" s="8">
-        <v>-0.31950571830598495</v>
-      </c>
-      <c r="D7" s="9">
+        <v>0.5720133380653265</v>
+      </c>
+      <c r="E7" s="11">
+        <v>131</v>
+      </c>
+      <c r="F7" s="8">
+        <v>5.1299999999999955</v>
+      </c>
+      <c r="G7" s="8">
+        <v>-0.2497375707837575</v>
+      </c>
+      <c r="H7" s="6">
+        <f t="shared" si="2"/>
+        <v>0.52070369216904422</v>
+      </c>
+      <c r="I7" s="16">
         <f t="shared" si="0"/>
-        <v>0.5720133380653265</v>
-      </c>
-      <c r="E7" s="14">
-        <v>131</v>
-      </c>
-      <c r="F7" s="11">
-        <v>5.1299999999999955</v>
-      </c>
-      <c r="G7" s="11">
-        <v>-0.2497375707837575</v>
-      </c>
-      <c r="H7" s="9">
+        <v>1.0985390475772252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="4">
+        <v>125</v>
+      </c>
+      <c r="B8" s="5">
+        <v>6.6499999999999915</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.25250761975934155</v>
+      </c>
+      <c r="D8" s="6">
         <f t="shared" si="1"/>
-        <v>0.52070369216904422</v>
-      </c>
-      <c r="I7" s="19">
-        <f>D7/H7</f>
-        <v>1.0985390475772252</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="7">
+        <v>0.52363159317169528</v>
+      </c>
+      <c r="E8" s="4">
         <v>125</v>
       </c>
-      <c r="B8" s="8">
+      <c r="F8" s="5">
         <v>6.6499999999999915</v>
       </c>
-      <c r="C8" s="8">
-        <v>0.25250761975934155</v>
-      </c>
-      <c r="D8" s="9">
+      <c r="G8" s="5">
+        <v>0.27096612138528675</v>
+      </c>
+      <c r="H8" s="6">
+        <f t="shared" si="2"/>
+        <v>0.50914238047272042</v>
+      </c>
+      <c r="I8" s="16">
         <f t="shared" si="0"/>
-        <v>0.52363159317169528</v>
-      </c>
-      <c r="E8" s="7">
-        <v>125</v>
-      </c>
-      <c r="F8" s="8">
-        <v>6.6499999999999915</v>
-      </c>
-      <c r="G8" s="8">
-        <v>0.27096612138528675</v>
-      </c>
-      <c r="H8" s="9">
+        <v>1.0284580762762709</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="7">
+        <v>119</v>
+      </c>
+      <c r="B9" s="8">
+        <v>8.2016666666665969</v>
+      </c>
+      <c r="C9" s="8">
+        <v>-0.27112397341235378</v>
+      </c>
+      <c r="D9" s="6">
         <f t="shared" si="1"/>
-        <v>0.50914238047272042</v>
-      </c>
-      <c r="I8" s="19">
-        <f>D8/H8</f>
-        <v>1.0284580762762709</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="10">
-        <v>119</v>
-      </c>
-      <c r="B9" s="11">
+        <v>0.53875088845095509</v>
+      </c>
+      <c r="E9" s="4">
+        <v>120</v>
+      </c>
+      <c r="F9" s="8">
         <v>8.2016666666665969</v>
       </c>
-      <c r="C9" s="11">
-        <v>-0.27112397341235378</v>
-      </c>
-      <c r="D9" s="9">
+      <c r="G9" s="5">
+        <v>-0.23817625908743373</v>
+      </c>
+      <c r="H9" s="6">
+        <f t="shared" si="2"/>
+        <v>0.44310950405333271</v>
+      </c>
+      <c r="I9" s="16">
         <f t="shared" si="0"/>
-        <v>0.53875088845095509</v>
-      </c>
-      <c r="E9" s="7">
-        <v>120</v>
-      </c>
-      <c r="F9" s="11">
-        <v>8.2016666666665969</v>
-      </c>
-      <c r="G9" s="8">
-        <v>-0.23817625908743373</v>
-      </c>
-      <c r="H9" s="9">
+        <v>1.2158414196101535</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="7">
+        <v>115</v>
+      </c>
+      <c r="B10" s="8">
+        <v>9.0883333333332956</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0.26762691503860131</v>
+      </c>
+      <c r="D10" s="6">
         <f t="shared" si="1"/>
-        <v>0.44310950405333271</v>
-      </c>
-      <c r="I9" s="19">
-        <f>D9/H9</f>
-        <v>1.2158414196101535</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="10">
+        <v>0.56873749075482016</v>
+      </c>
+      <c r="E10" s="11">
         <v>115</v>
       </c>
-      <c r="B10" s="11">
+      <c r="F10" s="8">
         <v>9.0883333333332956</v>
       </c>
-      <c r="C10" s="11">
-        <v>0.26762691503860131</v>
-      </c>
-      <c r="D10" s="9">
+      <c r="G10" s="8">
+        <v>0.20493324496589901</v>
+      </c>
+      <c r="H10" s="6">
+        <f t="shared" si="2"/>
+        <v>0.43388268798799745</v>
+      </c>
+      <c r="I10" s="16">
         <f t="shared" si="0"/>
-        <v>0.56873749075482016</v>
-      </c>
-      <c r="E10" s="14">
-        <v>115</v>
-      </c>
-      <c r="F10" s="11">
-        <v>9.0883333333332956</v>
-      </c>
-      <c r="G10" s="11">
-        <v>0.20493324496589901</v>
-      </c>
-      <c r="H10" s="9">
+        <v>1.3108093650663315</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="4">
+        <v>110</v>
+      </c>
+      <c r="B11" s="5">
+        <v>10.639999999999894</v>
+      </c>
+      <c r="C11" s="5">
+        <v>-0.30111057571621891</v>
+      </c>
+      <c r="D11" s="6">
         <f t="shared" si="1"/>
-        <v>0.43388268798799745</v>
-      </c>
-      <c r="I10" s="19">
-        <f>D10/H10</f>
-        <v>1.3108093650663315</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="7">
+        <v>0.53786892955966492</v>
+      </c>
+      <c r="E11" s="4">
         <v>110</v>
       </c>
-      <c r="B11" s="8">
+      <c r="F11" s="5">
         <v>10.639999999999894</v>
       </c>
-      <c r="C11" s="8">
-        <v>-0.30111057571621891</v>
-      </c>
-      <c r="D11" s="9">
+      <c r="G11" s="5">
+        <v>-0.22894944302209841</v>
+      </c>
+      <c r="H11" s="6">
+        <f t="shared" si="2"/>
+        <v>0.48513042541112494</v>
+      </c>
+      <c r="I11" s="16">
         <f t="shared" si="0"/>
-        <v>0.53786892955966492</v>
-      </c>
-      <c r="E11" s="7">
-        <v>110</v>
-      </c>
-      <c r="F11" s="8">
-        <v>10.639999999999894</v>
-      </c>
-      <c r="G11" s="8">
-        <v>-0.22894944302209841</v>
-      </c>
-      <c r="H11" s="9">
+        <v>1.1087099497085688</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="4">
+        <v>105</v>
+      </c>
+      <c r="B12" s="5">
+        <v>11.969999999999892</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.23675835384344601</v>
+      </c>
+      <c r="D12" s="6">
         <f t="shared" si="1"/>
-        <v>0.48513042541112494</v>
-      </c>
-      <c r="I11" s="19">
-        <f>D11/H11</f>
-        <v>1.1087099497085688</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="7">
-        <v>105</v>
-      </c>
-      <c r="B12" s="8">
-        <v>11.969999999999892</v>
-      </c>
-      <c r="C12" s="8">
-        <v>0.23675835384344601</v>
-      </c>
-      <c r="D12" s="9">
+        <v>0.51947378696989888</v>
+      </c>
+      <c r="E12" s="11">
+        <v>106</v>
+      </c>
+      <c r="F12" s="8">
+        <v>11.703999999999894</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0.25618098238902653</v>
+      </c>
+      <c r="H12" s="6">
+        <f t="shared" si="2"/>
+        <v>0.43732884820517082</v>
+      </c>
+      <c r="I12" s="16">
         <f t="shared" si="0"/>
-        <v>0.51947378696989888</v>
-      </c>
-      <c r="E12" s="14">
-        <v>106</v>
-      </c>
-      <c r="F12" s="11">
-        <v>11.703999999999894</v>
-      </c>
-      <c r="G12" s="11">
-        <v>0.25618098238902653</v>
-      </c>
-      <c r="H12" s="9">
+        <v>1.1878333412073245</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="4">
+        <v>100</v>
+      </c>
+      <c r="B13" s="5">
+        <v>13.299999999999891</v>
+      </c>
+      <c r="C13" s="5">
+        <v>-0.28271543312645292</v>
+      </c>
+      <c r="D13" s="6">
         <f t="shared" si="1"/>
-        <v>0.43732884820517082</v>
-      </c>
-      <c r="I12" s="19">
-        <f>D12/H12</f>
-        <v>1.1878333412073245</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="7">
-        <v>100</v>
-      </c>
-      <c r="B13" s="8">
-        <v>13.299999999999891</v>
-      </c>
-      <c r="C13" s="8">
-        <v>-0.28271543312645292</v>
-      </c>
-      <c r="D13" s="9">
+        <v>0.58662865683527754</v>
+      </c>
+      <c r="E13" s="11">
+        <v>101</v>
+      </c>
+      <c r="F13" s="8">
+        <v>13.033999999999892</v>
+      </c>
+      <c r="G13" s="8">
+        <v>-0.18114786581614428</v>
+      </c>
+      <c r="H13" s="6">
+        <f t="shared" si="2"/>
+        <v>0.3859699443234248</v>
+      </c>
+      <c r="I13" s="16">
         <f t="shared" si="0"/>
-        <v>0.58662865683527754</v>
-      </c>
-      <c r="E13" s="14">
-        <v>101</v>
-      </c>
-      <c r="F13" s="11">
-        <v>13.033999999999892</v>
-      </c>
-      <c r="G13" s="11">
+        <v>1.519881704425436</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="4">
+        <v>97</v>
+      </c>
+      <c r="B14" s="5">
+        <v>14.629999999999896</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.30391322370882462</v>
+      </c>
+      <c r="D14" s="6">
+        <f t="shared" si="1"/>
+        <v>0.5886445628725121</v>
+      </c>
+      <c r="E14" s="4">
+        <v>97</v>
+      </c>
+      <c r="F14" s="5">
+        <v>14.629999999999896</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.20482207850728051</v>
+      </c>
+      <c r="H14" s="6">
+        <f t="shared" si="2"/>
+        <v>0.42632336880193955</v>
+      </c>
+      <c r="I14" s="16">
+        <f t="shared" si="0"/>
+        <v>1.3807466490207423</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="4">
+        <v>92</v>
+      </c>
+      <c r="B15" s="5">
+        <v>17.289999999999893</v>
+      </c>
+      <c r="C15" s="5">
+        <v>-0.28473133916368754</v>
+      </c>
+      <c r="D15" s="6">
+        <f t="shared" si="1"/>
+        <v>0.48658931973750896</v>
+      </c>
+      <c r="E15" s="11">
+        <v>93</v>
+      </c>
+      <c r="F15" s="8">
+        <v>15.959</v>
+      </c>
+      <c r="G15" s="8">
+        <v>-0.22150129029465904</v>
+      </c>
+      <c r="H15" s="6">
+        <f t="shared" si="2"/>
+        <v>0.40064391686106648</v>
+      </c>
+      <c r="I15" s="16">
+        <f t="shared" si="0"/>
+        <v>1.2145181775123426</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="7">
+        <v>88</v>
+      </c>
+      <c r="B16" s="8">
+        <v>18.885999999999896</v>
+      </c>
+      <c r="C16" s="8">
+        <v>0.20185798057382145</v>
+      </c>
+      <c r="D16" s="6">
+        <f t="shared" si="1"/>
+        <v>0.40040933664572853</v>
+      </c>
+      <c r="E16" s="4">
+        <v>89</v>
+      </c>
+      <c r="F16" s="8">
+        <v>18.885999999999896</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0.17914262656640748</v>
+      </c>
+      <c r="H16" s="6">
+        <f t="shared" si="2"/>
+        <v>0.39975458519211854</v>
+      </c>
+      <c r="I16" s="16">
+        <f t="shared" si="0"/>
+        <v>1.0016378835362083</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="4">
+        <v>84</v>
+      </c>
+      <c r="B17" s="5">
+        <v>19.949999999999896</v>
+      </c>
+      <c r="C17" s="5">
+        <v>-0.19855135607190708</v>
+      </c>
+      <c r="D17" s="6">
+        <f t="shared" si="1"/>
+        <v>0.41414269652438945</v>
+      </c>
+      <c r="E17" s="11">
+        <v>85</v>
+      </c>
+      <c r="F17" s="8">
+        <v>19.683999999999891</v>
+      </c>
+      <c r="G17" s="8">
+        <v>-0.22061195862571106</v>
+      </c>
+      <c r="H17" s="6">
+        <f t="shared" si="2"/>
+        <v>0.42754619984674302</v>
+      </c>
+      <c r="I17" s="16">
+        <f t="shared" si="0"/>
+        <v>0.96865016382520031</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" s="4">
+        <v>81</v>
+      </c>
+      <c r="B18" s="5">
+        <v>21.279999999999895</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.21559134045248238</v>
+      </c>
+      <c r="D18" s="6">
+        <f t="shared" si="1"/>
+        <v>0.45559476441502655</v>
+      </c>
+      <c r="E18" s="11">
+        <v>82</v>
+      </c>
+      <c r="F18" s="8">
+        <v>20.836666666666595</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0.20693424122103196</v>
+      </c>
+      <c r="H18" s="6">
+        <f t="shared" si="2"/>
+        <v>0.39497442747152312</v>
+      </c>
+      <c r="I18" s="16">
+        <f t="shared" si="0"/>
+        <v>1.1534791437804515</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" s="4">
+        <v>78</v>
+      </c>
+      <c r="B19" s="5">
+        <v>22.609999999999893</v>
+      </c>
+      <c r="C19" s="5">
+        <v>-0.24000342396254418</v>
+      </c>
+      <c r="D19" s="6">
+        <f t="shared" si="1"/>
+        <v>0.40343319570158048</v>
+      </c>
+      <c r="E19" s="4">
+        <v>78</v>
+      </c>
+      <c r="F19" s="5">
+        <v>22.609999999999893</v>
+      </c>
+      <c r="G19" s="5">
+        <v>-0.18804018625049115</v>
+      </c>
+      <c r="H19" s="6">
+        <f t="shared" si="2"/>
+        <v>0.373963966792627</v>
+      </c>
+      <c r="I19" s="16">
+        <f t="shared" si="0"/>
+        <v>1.0788023219501652</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" s="4">
+        <v>75</v>
+      </c>
+      <c r="B20" s="5">
+        <v>23.939999999999891</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.16342977173903631</v>
+      </c>
+      <c r="D20" s="6">
+        <f t="shared" si="1"/>
+        <v>0.43115190371355661</v>
+      </c>
+      <c r="E20" s="4">
+        <v>75</v>
+      </c>
+      <c r="F20" s="5">
+        <v>23.939999999999891</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0.18592378054213585</v>
+      </c>
+      <c r="H20" s="6">
+        <f t="shared" si="2"/>
+        <v>0.35539916820333783</v>
+      </c>
+      <c r="I20" s="16">
+        <f t="shared" si="0"/>
+        <v>1.2131483196575115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" s="4">
+        <v>71</v>
+      </c>
+      <c r="B21" s="5">
+        <v>25.269999999999897</v>
+      </c>
+      <c r="C21" s="5">
+        <v>-0.26772213197452033</v>
+      </c>
+      <c r="D21" s="6">
+        <f t="shared" si="1"/>
+        <v>0.47096604794894059</v>
+      </c>
+      <c r="E21" s="11">
+        <v>72</v>
+      </c>
+      <c r="F21" s="8">
+        <v>24.937499999999893</v>
+      </c>
+      <c r="G21" s="8">
+        <v>-0.16947538766120201</v>
+      </c>
+      <c r="H21" s="6">
+        <f t="shared" si="2"/>
+        <v>0.26479850442926206</v>
+      </c>
+      <c r="I21" s="16">
+        <f t="shared" si="0"/>
+        <v>1.7785827339321467</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" s="4">
+        <v>69</v>
+      </c>
+      <c r="B22" s="5">
+        <v>26.599999999999895</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0.20324391597442026</v>
+      </c>
+      <c r="D22" s="6">
+        <f t="shared" si="1"/>
+        <v>0.36185513368361621</v>
+      </c>
+      <c r="E22" s="4">
+        <v>69</v>
+      </c>
+      <c r="F22" s="5">
+        <v>26.599999999999895</v>
+      </c>
+      <c r="G22" s="5">
+        <v>9.5323116768060046E-2</v>
+      </c>
+      <c r="H22" s="6">
+        <f t="shared" si="2"/>
+        <v>0.27647098258420433</v>
+      </c>
+      <c r="I22" s="16">
+        <f t="shared" si="0"/>
+        <v>1.3088358506969409</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23" s="4">
+        <v>65</v>
+      </c>
+      <c r="B23" s="5">
+        <v>27.929999999999893</v>
+      </c>
+      <c r="C23" s="5">
+        <v>-0.15861121770919595</v>
+      </c>
+      <c r="D23" s="6">
+        <f t="shared" si="1"/>
+        <v>0.33690829647283765</v>
+      </c>
+      <c r="E23" s="11">
+        <v>66</v>
+      </c>
+      <c r="F23" s="8">
+        <v>27.59749999999989</v>
+      </c>
+      <c r="G23" s="8">
         <v>-0.18114786581614428</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H23" s="6">
+        <f t="shared" si="2"/>
+        <v>0.34294852483806609</v>
+      </c>
+      <c r="I23" s="16">
+        <f t="shared" si="0"/>
+        <v>0.98238736157829942</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24" s="4">
+        <v>62</v>
+      </c>
+      <c r="B24" s="5">
+        <v>29.259999999999891</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0.1782970787636417</v>
+      </c>
+      <c r="D24" s="6">
         <f t="shared" si="1"/>
-        <v>0.3859699443234248</v>
-      </c>
-      <c r="I13" s="19">
-        <f>D13/H13</f>
-        <v>1.519881704425436</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="7">
-        <v>97</v>
-      </c>
-      <c r="B14" s="8">
-        <v>14.629999999999896</v>
-      </c>
-      <c r="C14" s="8">
-        <v>0.30391322370882462</v>
-      </c>
-      <c r="D14" s="9">
+        <v>0.38201419405596254</v>
+      </c>
+      <c r="E24" s="4">
+        <v>62</v>
+      </c>
+      <c r="F24" s="5">
+        <v>29.259999999999891</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0.16180065902192181</v>
+      </c>
+      <c r="H24" s="6">
+        <f t="shared" si="2"/>
+        <v>0.36529298302038415</v>
+      </c>
+      <c r="I24" s="16">
         <f t="shared" si="0"/>
-        <v>0.5886445628725121</v>
-      </c>
-      <c r="E14" s="7">
-        <v>97</v>
-      </c>
-      <c r="F14" s="8">
-        <v>14.629999999999896</v>
-      </c>
-      <c r="G14" s="8">
-        <v>0.20482207850728051</v>
-      </c>
-      <c r="H14" s="9">
+        <v>1.0457747939676283</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A25" s="4">
+        <v>59</v>
+      </c>
+      <c r="B25" s="5">
+        <v>30.589999999999897</v>
+      </c>
+      <c r="C25" s="5">
+        <v>-0.20371711529232084</v>
+      </c>
+      <c r="D25" s="6">
         <f t="shared" si="1"/>
-        <v>0.42632336880193955</v>
-      </c>
-      <c r="I14" s="19">
-        <f>D14/H14</f>
-        <v>1.3807466490207423</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="7">
-        <v>92</v>
-      </c>
-      <c r="B15" s="8">
-        <v>17.289999999999893</v>
-      </c>
-      <c r="C15" s="8">
-        <v>-0.28473133916368754</v>
-      </c>
-      <c r="D15" s="9">
+        <v>0.34043613203799827</v>
+      </c>
+      <c r="E25" s="11">
+        <v>60</v>
+      </c>
+      <c r="F25" s="8">
+        <v>30.14666666666659</v>
+      </c>
+      <c r="G25" s="8">
+        <v>-0.20349232399846237</v>
+      </c>
+      <c r="H25" s="6">
+        <f t="shared" si="2"/>
+        <v>0.3202705672798925</v>
+      </c>
+      <c r="I25" s="16">
         <f t="shared" si="0"/>
-        <v>0.48658931973750896</v>
-      </c>
-      <c r="E15" s="14">
-        <v>93</v>
-      </c>
-      <c r="F15" s="11">
-        <v>15.959</v>
-      </c>
-      <c r="G15" s="11">
-        <v>-0.22150129029465904</v>
-      </c>
-      <c r="H15" s="9">
+        <v>1.0629641522459432</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26" s="4">
+        <v>57</v>
+      </c>
+      <c r="B26" s="5">
+        <v>31.919999999999895</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0.13671901674567746</v>
+      </c>
+      <c r="D26" s="6">
         <f t="shared" si="1"/>
-        <v>0.40064391686106648</v>
-      </c>
-      <c r="I15" s="19">
-        <f>D15/H15</f>
-        <v>1.2145181775123426</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="10">
-        <v>88</v>
-      </c>
-      <c r="B16" s="11">
-        <v>18.885999999999896</v>
-      </c>
-      <c r="C16" s="11">
-        <v>0.20185798057382145</v>
-      </c>
-      <c r="D16" s="9">
+        <v>0.29999201716597851</v>
+      </c>
+      <c r="E26" s="4">
+        <v>57</v>
+      </c>
+      <c r="F26" s="5">
+        <v>31.919999999999895</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0.11677824328143015</v>
+      </c>
+      <c r="H26" s="6">
+        <f t="shared" si="2"/>
+        <v>0.32382789395568445</v>
+      </c>
+      <c r="I26" s="16">
         <f t="shared" si="0"/>
-        <v>0.40040933664572853</v>
-      </c>
-      <c r="E16" s="7">
-        <v>89</v>
-      </c>
-      <c r="F16" s="11">
-        <v>18.885999999999896</v>
-      </c>
-      <c r="G16" s="8">
-        <v>0.17914262656640748</v>
-      </c>
-      <c r="H16" s="9">
+        <v>0.92639337983352399</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A27" s="4">
+        <v>54</v>
+      </c>
+      <c r="B27" s="5">
+        <v>33.249999999999893</v>
+      </c>
+      <c r="C27" s="5">
+        <v>-0.16327300042030105</v>
+      </c>
+      <c r="D27" s="6">
         <f t="shared" si="1"/>
-        <v>0.39975458519211854</v>
-      </c>
-      <c r="I16" s="19">
-        <f>D16/H16</f>
-        <v>1.0016378835362083</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="7">
-        <v>84</v>
-      </c>
-      <c r="B17" s="8">
-        <v>19.949999999999896</v>
-      </c>
-      <c r="C17" s="8">
-        <v>-0.19855135607190708</v>
-      </c>
-      <c r="D17" s="9">
+        <v>0.23497904746516166</v>
+      </c>
+      <c r="E27" s="4">
+        <v>54</v>
+      </c>
+      <c r="F27" s="5">
+        <v>33.249999999999893</v>
+      </c>
+      <c r="G27" s="5">
+        <v>-0.20704965067425429</v>
+      </c>
+      <c r="H27" s="6">
+        <f t="shared" si="2"/>
+        <v>0.36595998177209516</v>
+      </c>
+      <c r="I27" s="16">
         <f t="shared" si="0"/>
-        <v>0.41414269652438945</v>
-      </c>
-      <c r="E17" s="14">
-        <v>85</v>
-      </c>
-      <c r="F17" s="11">
-        <v>19.683999999999891</v>
-      </c>
-      <c r="G17" s="11">
-        <v>-0.22061195862571106</v>
-      </c>
-      <c r="H17" s="9">
+        <v>0.64208946105887876</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A28" s="4">
+        <v>52</v>
+      </c>
+      <c r="B28" s="5">
+        <v>34.579999999999892</v>
+      </c>
+      <c r="C28" s="5">
+        <v>7.170604704486061E-2</v>
+      </c>
+      <c r="D28" s="6">
         <f t="shared" si="1"/>
-        <v>0.42754619984674302</v>
-      </c>
-      <c r="I17" s="19">
-        <f>D17/H17</f>
-        <v>0.96865016382520031</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="7">
-        <v>81</v>
-      </c>
-      <c r="B18" s="8">
-        <v>21.279999999999895</v>
-      </c>
-      <c r="C18" s="8">
-        <v>0.21559134045248238</v>
-      </c>
-      <c r="D18" s="9">
+        <v>0.26244576722248347</v>
+      </c>
+      <c r="E28" s="11">
+        <v>51</v>
+      </c>
+      <c r="F28" s="8">
+        <v>34.912499999999895</v>
+      </c>
+      <c r="G28" s="8">
+        <v>0.15891033109784086</v>
+      </c>
+      <c r="H28" s="6">
+        <f t="shared" si="2"/>
+        <v>0.26301984109136611</v>
+      </c>
+      <c r="I28" s="16">
         <f t="shared" si="0"/>
-        <v>0.45559476441502655</v>
-      </c>
-      <c r="E18" s="14">
-        <v>82</v>
-      </c>
-      <c r="F18" s="11">
-        <v>20.836666666666595</v>
-      </c>
-      <c r="G18" s="11">
-        <v>0.20693424122103196</v>
-      </c>
-      <c r="H18" s="9">
+        <v>0.99781737428438633</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A29" s="7">
+        <v>49</v>
+      </c>
+      <c r="B29" s="8">
+        <v>35.577499999999894</v>
+      </c>
+      <c r="C29" s="8">
+        <v>-0.19073972017762289</v>
+      </c>
+      <c r="D29" s="6">
         <f t="shared" si="1"/>
-        <v>0.39497442747152312</v>
-      </c>
-      <c r="I18" s="19">
-        <f>D18/H18</f>
-        <v>1.1534791437804515</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="7">
-        <v>78</v>
-      </c>
-      <c r="B19" s="8">
-        <v>22.609999999999893</v>
-      </c>
-      <c r="C19" s="8">
-        <v>-0.24000342396254418</v>
-      </c>
-      <c r="D19" s="9">
+        <v>0.35769732748181982</v>
+      </c>
+      <c r="E29" s="4">
+        <v>48</v>
+      </c>
+      <c r="F29" s="8">
+        <v>35.577499999999894</v>
+      </c>
+      <c r="G29" s="5">
+        <v>-0.10410950999352522</v>
+      </c>
+      <c r="H29" s="6">
+        <f t="shared" si="2"/>
+        <v>0.12672976282508763</v>
+      </c>
+      <c r="I29" s="16">
         <f t="shared" si="0"/>
-        <v>0.40343319570158048</v>
-      </c>
-      <c r="E19" s="7">
-        <v>78</v>
-      </c>
-      <c r="F19" s="8">
-        <v>22.609999999999893</v>
-      </c>
-      <c r="G19" s="8">
-        <v>-0.18804018625049115</v>
-      </c>
-      <c r="H19" s="9">
+        <v>2.822520294427707</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A30" s="4">
+        <v>46</v>
+      </c>
+      <c r="B30" s="5">
+        <v>37.239999999999888</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0.16695760730419693</v>
+      </c>
+      <c r="D30" s="6">
         <f t="shared" si="1"/>
-        <v>0.373963966792627</v>
-      </c>
-      <c r="I19" s="19">
-        <f>D19/H19</f>
-        <v>1.0788023219501652</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="7">
-        <v>75</v>
-      </c>
-      <c r="B20" s="8">
-        <v>23.939999999999891</v>
-      </c>
-      <c r="C20" s="8">
-        <v>0.16342977173903631</v>
-      </c>
-      <c r="D20" s="9">
+        <v>0.29507824620021911</v>
+      </c>
+      <c r="E30" s="11">
+        <v>45</v>
+      </c>
+      <c r="F30" s="8">
+        <v>37.683333333333195</v>
+      </c>
+      <c r="G30" s="8">
+        <v>2.2620252831562406E-2</v>
+      </c>
+      <c r="H30" s="6">
+        <f t="shared" si="2"/>
+        <v>0.11149995799435342</v>
+      </c>
+      <c r="I30" s="16">
         <f t="shared" si="0"/>
-        <v>0.43115190371355661</v>
-      </c>
-      <c r="E20" s="7">
-        <v>75</v>
-      </c>
-      <c r="F20" s="8">
-        <v>23.939999999999891</v>
-      </c>
-      <c r="G20" s="8">
-        <v>0.18592378054213585</v>
-      </c>
-      <c r="H20" s="9">
+        <v>2.6464426669574395</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A31" s="4">
+        <v>43</v>
+      </c>
+      <c r="B31" s="5">
+        <v>38.569999999999894</v>
+      </c>
+      <c r="C31" s="5">
+        <v>-0.12812063889602218</v>
+      </c>
+      <c r="D31" s="6">
         <f t="shared" si="1"/>
-        <v>0.35539916820333783</v>
-      </c>
-      <c r="I20" s="19">
-        <f>D20/H20</f>
-        <v>1.2131483196575115</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="7">
-        <v>71</v>
-      </c>
-      <c r="B21" s="8">
-        <v>25.269999999999897</v>
-      </c>
-      <c r="C21" s="8">
-        <v>-0.26772213197452033</v>
-      </c>
-      <c r="D21" s="9">
+        <v>0.24694848956124227</v>
+      </c>
+      <c r="E31" s="4">
+        <v>43</v>
+      </c>
+      <c r="F31" s="5">
+        <v>38.569999999999894</v>
+      </c>
+      <c r="G31" s="5">
+        <v>-8.8879705162791006E-2</v>
+      </c>
+      <c r="H31" s="6">
+        <f t="shared" si="2"/>
+        <v>0.1119446238288274</v>
+      </c>
+      <c r="I31" s="16">
         <f t="shared" si="0"/>
-        <v>0.47096604794894059</v>
-      </c>
-      <c r="E21" s="14">
-        <v>72</v>
-      </c>
-      <c r="F21" s="11">
-        <v>24.937499999999893</v>
-      </c>
-      <c r="G21" s="11">
-        <v>-0.16947538766120201</v>
-      </c>
-      <c r="H21" s="9">
+        <v>2.2059879350601683</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A32" s="4">
+        <v>41</v>
+      </c>
+      <c r="B32" s="5">
+        <v>39.899999999999892</v>
+      </c>
+      <c r="C32" s="5">
+        <v>0.1188278506652201</v>
+      </c>
+      <c r="D32" s="6">
         <f t="shared" si="1"/>
-        <v>0.26479850442926206</v>
-      </c>
-      <c r="I21" s="19">
-        <f>D21/H21</f>
-        <v>1.7785827339321467</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="7">
-        <v>69</v>
-      </c>
-      <c r="B22" s="8">
-        <v>26.599999999999895</v>
-      </c>
-      <c r="C22" s="8">
-        <v>0.20324391597442026</v>
-      </c>
-      <c r="D22" s="9">
+        <v>0.21078817501834607</v>
+      </c>
+      <c r="E32" s="4">
+        <v>41</v>
+      </c>
+      <c r="F32" s="5">
+        <v>39.899999999999892</v>
+      </c>
+      <c r="G32" s="5">
+        <v>2.30649186660364E-2</v>
+      </c>
+      <c r="H32" s="6">
+        <f t="shared" si="2"/>
+        <v>0.11639128217356733</v>
+      </c>
+      <c r="I32" s="16">
         <f t="shared" si="0"/>
-        <v>0.36185513368361621</v>
-      </c>
-      <c r="E22" s="7">
-        <v>69</v>
-      </c>
-      <c r="F22" s="8">
-        <v>26.599999999999895</v>
-      </c>
-      <c r="G22" s="8">
-        <v>9.5323116768060046E-2</v>
-      </c>
-      <c r="H22" s="9">
+        <v>1.8110306122756714</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A33" s="4">
+        <v>38</v>
+      </c>
+      <c r="B33" s="5">
+        <v>41.229999999999897</v>
+      </c>
+      <c r="C33" s="5">
+        <v>-9.1960324353125983E-2</v>
+      </c>
+      <c r="D33" s="6">
         <f t="shared" si="1"/>
-        <v>0.27647098258420433</v>
-      </c>
-      <c r="I22" s="19">
-        <f>D22/H22</f>
-        <v>1.3088358506969409</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="7">
-        <v>65</v>
-      </c>
-      <c r="B23" s="8">
-        <v>27.929999999999893</v>
-      </c>
-      <c r="C23" s="8">
-        <v>-0.15861121770919595</v>
-      </c>
-      <c r="D23" s="9">
+        <v>0.14186938737038715</v>
+      </c>
+      <c r="E33" s="4">
+        <v>38</v>
+      </c>
+      <c r="F33" s="5">
+        <v>41.229999999999897</v>
+      </c>
+      <c r="G33" s="5">
+        <v>-9.3326363507530929E-2</v>
+      </c>
+      <c r="H33" s="6">
+        <f t="shared" si="2"/>
+        <v>0.18053432879644063</v>
+      </c>
+      <c r="I33" s="16">
         <f t="shared" si="0"/>
-        <v>0.33690829647283765</v>
-      </c>
-      <c r="E23" s="14">
-        <v>66</v>
-      </c>
-      <c r="F23" s="11">
-        <v>27.59749999999989</v>
-      </c>
-      <c r="G23" s="11">
-        <v>-0.18114786581614428</v>
-      </c>
-      <c r="H23" s="9">
+        <v>0.78583053049345708</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A34" s="4">
+        <v>36</v>
+      </c>
+      <c r="B34" s="5">
+        <v>42.559999999999896</v>
+      </c>
+      <c r="C34" s="5">
+        <v>4.9909063017261161E-2</v>
+      </c>
+      <c r="D34" s="6">
         <f t="shared" si="1"/>
-        <v>0.34294852483806609</v>
-      </c>
-      <c r="I23" s="19">
-        <f>D23/H23</f>
-        <v>0.98238736157829942</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" s="7">
-        <v>62</v>
-      </c>
-      <c r="B24" s="8">
-        <v>29.259999999999891</v>
-      </c>
-      <c r="C24" s="8">
-        <v>0.1782970787636417</v>
-      </c>
-      <c r="D24" s="9">
+        <v>0.15283087644785046</v>
+      </c>
+      <c r="E34" s="11">
+        <v>35</v>
+      </c>
+      <c r="F34" s="8">
+        <v>43.003333333333195</v>
+      </c>
+      <c r="G34" s="8">
+        <v>8.72079652889097E-2</v>
+      </c>
+      <c r="H34" s="6">
+        <f t="shared" si="2"/>
+        <v>0.20043312488915177</v>
+      </c>
+      <c r="I34" s="16">
         <f t="shared" si="0"/>
-        <v>0.38201419405596254</v>
-      </c>
-      <c r="E24" s="7">
-        <v>62</v>
-      </c>
-      <c r="F24" s="8">
-        <v>29.259999999999891</v>
-      </c>
-      <c r="G24" s="8">
-        <v>0.16180065902192181</v>
-      </c>
-      <c r="H24" s="9">
-        <f t="shared" si="1"/>
-        <v>0.36529298302038415</v>
-      </c>
-      <c r="I24" s="19">
-        <f>D24/H24</f>
-        <v>1.0457747939676283</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" s="7">
-        <v>59</v>
-      </c>
-      <c r="B25" s="8">
-        <v>30.589999999999897</v>
-      </c>
-      <c r="C25" s="8">
-        <v>-0.20371711529232084</v>
-      </c>
-      <c r="D25" s="9">
-        <f t="shared" si="0"/>
-        <v>0.34043613203799827</v>
-      </c>
-      <c r="E25" s="14">
-        <v>60</v>
-      </c>
-      <c r="F25" s="11">
-        <v>30.14666666666659</v>
-      </c>
-      <c r="G25" s="11">
-        <v>-0.20349232399846237</v>
-      </c>
-      <c r="H25" s="9">
-        <f t="shared" si="1"/>
-        <v>0.3202705672798925</v>
-      </c>
-      <c r="I25" s="19">
-        <f>D25/H25</f>
-        <v>1.0629641522459432</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="7">
-        <v>57</v>
-      </c>
-      <c r="B26" s="8">
-        <v>31.919999999999895</v>
-      </c>
-      <c r="C26" s="8">
-        <v>0.13671901674567746</v>
-      </c>
-      <c r="D26" s="9">
-        <f t="shared" si="0"/>
-        <v>0.29999201716597851</v>
-      </c>
-      <c r="E26" s="7">
-        <v>57</v>
-      </c>
-      <c r="F26" s="8">
-        <v>31.919999999999895</v>
-      </c>
-      <c r="G26" s="8">
-        <v>0.11677824328143015</v>
-      </c>
-      <c r="H26" s="9">
-        <f t="shared" si="1"/>
-        <v>0.32382789395568445</v>
-      </c>
-      <c r="I26" s="19">
-        <f>D26/H26</f>
-        <v>0.92639337983352399</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="7">
-        <v>54</v>
-      </c>
-      <c r="B27" s="8">
-        <v>33.249999999999893</v>
-      </c>
-      <c r="C27" s="8">
-        <v>-0.16327300042030105</v>
-      </c>
-      <c r="D27" s="9">
-        <f t="shared" si="0"/>
-        <v>0.23497904746516166</v>
-      </c>
-      <c r="E27" s="7">
-        <v>54</v>
-      </c>
-      <c r="F27" s="8">
-        <v>33.249999999999893</v>
-      </c>
-      <c r="G27" s="8">
-        <v>-0.20704965067425429</v>
-      </c>
-      <c r="H27" s="9">
-        <f t="shared" si="1"/>
-        <v>0.36595998177209516</v>
-      </c>
-      <c r="I27" s="19">
-        <f>D27/H27</f>
-        <v>0.64208946105887876</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="7">
-        <v>52</v>
-      </c>
-      <c r="B28" s="8">
-        <v>34.579999999999892</v>
-      </c>
-      <c r="C28" s="8">
-        <v>7.170604704486061E-2</v>
-      </c>
-      <c r="D28" s="9">
-        <f t="shared" si="0"/>
-        <v>0.26244576722248347</v>
-      </c>
-      <c r="E28" s="14">
-        <v>51</v>
-      </c>
-      <c r="F28" s="11">
-        <v>34.912499999999895</v>
-      </c>
-      <c r="G28" s="11">
-        <v>0.15891033109784086</v>
-      </c>
-      <c r="H28" s="9">
-        <f t="shared" si="1"/>
-        <v>0.26301984109136611</v>
-      </c>
-      <c r="I28" s="19">
-        <f>D28/H28</f>
-        <v>0.99781737428438633</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="10">
-        <v>49</v>
-      </c>
-      <c r="B29" s="11">
-        <v>35.577499999999894</v>
-      </c>
-      <c r="C29" s="11">
-        <v>-0.19073972017762289</v>
-      </c>
-      <c r="D29" s="9">
-        <f t="shared" si="0"/>
-        <v>0.35769732748181982</v>
-      </c>
-      <c r="E29" s="7">
-        <v>48</v>
-      </c>
-      <c r="F29" s="11">
-        <v>35.577499999999894</v>
-      </c>
-      <c r="G29" s="8">
-        <v>-0.10410950999352522</v>
-      </c>
-      <c r="H29" s="9">
-        <f t="shared" si="1"/>
-        <v>0.12672976282508763</v>
-      </c>
-      <c r="I29" s="19">
-        <f>D29/H29</f>
-        <v>2.822520294427707</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="7">
-        <v>46</v>
-      </c>
-      <c r="B30" s="8">
-        <v>37.239999999999888</v>
-      </c>
-      <c r="C30" s="8">
-        <v>0.16695760730419693</v>
-      </c>
-      <c r="D30" s="9">
-        <f t="shared" si="0"/>
-        <v>0.29507824620021911</v>
-      </c>
-      <c r="E30" s="14">
-        <v>45</v>
-      </c>
-      <c r="F30" s="11">
-        <v>37.683333333333195</v>
-      </c>
-      <c r="G30" s="11">
-        <v>2.2620252831562406E-2</v>
-      </c>
-      <c r="H30" s="9">
-        <f t="shared" si="1"/>
-        <v>0.11149995799435342</v>
-      </c>
-      <c r="I30" s="19">
-        <f>D30/H30</f>
-        <v>2.6464426669574395</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="7">
-        <v>43</v>
-      </c>
-      <c r="B31" s="8">
-        <v>38.569999999999894</v>
-      </c>
-      <c r="C31" s="8">
-        <v>-0.12812063889602218</v>
-      </c>
-      <c r="D31" s="9">
-        <f t="shared" si="0"/>
-        <v>0.24694848956124227</v>
-      </c>
-      <c r="E31" s="7">
-        <v>43</v>
-      </c>
-      <c r="F31" s="8">
-        <v>38.569999999999894</v>
-      </c>
-      <c r="G31" s="8">
-        <v>-8.8879705162791006E-2</v>
-      </c>
-      <c r="H31" s="9">
-        <f t="shared" si="1"/>
-        <v>0.1119446238288274</v>
-      </c>
-      <c r="I31" s="19">
-        <f>D31/H31</f>
-        <v>2.2059879350601683</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="7">
-        <v>41</v>
-      </c>
-      <c r="B32" s="8">
-        <v>39.899999999999892</v>
-      </c>
-      <c r="C32" s="8">
-        <v>0.1188278506652201</v>
-      </c>
-      <c r="D32" s="9">
-        <f t="shared" si="0"/>
-        <v>0.21078817501834607</v>
-      </c>
-      <c r="E32" s="7">
-        <v>41</v>
-      </c>
-      <c r="F32" s="8">
-        <v>39.899999999999892</v>
-      </c>
-      <c r="G32" s="8">
-        <v>2.30649186660364E-2</v>
-      </c>
-      <c r="H32" s="9">
-        <f t="shared" si="1"/>
-        <v>0.11639128217356733</v>
-      </c>
-      <c r="I32" s="19">
-        <f>D32/H32</f>
-        <v>1.8110306122756714</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A33" s="7">
-        <v>38</v>
-      </c>
-      <c r="B33" s="8">
-        <v>41.229999999999897</v>
-      </c>
-      <c r="C33" s="8">
-        <v>-9.1960324353125983E-2</v>
-      </c>
-      <c r="D33" s="9">
-        <f t="shared" si="0"/>
-        <v>0.14186938737038715</v>
-      </c>
-      <c r="E33" s="7">
-        <v>38</v>
-      </c>
-      <c r="F33" s="8">
-        <v>41.229999999999897</v>
-      </c>
-      <c r="G33" s="8">
-        <v>-9.3326363507530929E-2</v>
-      </c>
-      <c r="H33" s="9">
-        <f t="shared" si="1"/>
-        <v>0.18053432879644063</v>
-      </c>
-      <c r="I33" s="19">
-        <f>D33/H33</f>
-        <v>0.78583053049345708</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="7">
-        <v>36</v>
-      </c>
-      <c r="B34" s="8">
-        <v>42.559999999999896</v>
-      </c>
-      <c r="C34" s="8">
-        <v>4.9909063017261161E-2</v>
-      </c>
-      <c r="D34" s="9">
-        <f t="shared" si="0"/>
-        <v>0.15283087644785046</v>
-      </c>
-      <c r="E34" s="14">
-        <v>35</v>
-      </c>
-      <c r="F34" s="11">
-        <v>43.003333333333195</v>
-      </c>
-      <c r="G34" s="11">
-        <v>8.72079652889097E-2</v>
-      </c>
-      <c r="H34" s="9">
-        <f t="shared" si="1"/>
-        <v>0.20043312488915177</v>
-      </c>
-      <c r="I34" s="19">
-        <f>D34/H34</f>
         <v>0.76250308691426416</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="7">
+      <c r="A35" s="4">
         <v>33</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35" s="5">
         <v>43.889999999999894</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="5">
         <v>-0.10292181343058929</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E35" s="9">
         <v>33</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F35" s="10">
         <v>43.889999999999894</v>
       </c>
-      <c r="G35" s="13">
+      <c r="G35" s="10">
         <v>-0.11322515960024206</v>
       </c>
-      <c r="H35" s="22" t="s">
+      <c r="H35" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I35" s="20" t="s">
+      <c r="I35" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="15"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="17"/>
-      <c r="I36" s="21">
+      <c r="A36" s="12"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="14"/>
+      <c r="I36" s="18">
         <f>AVERAGE(I4:I35)</f>
         <v>1.2979419997967521</v>
       </c>
@@ -17714,7 +19886,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D34"/>
     </sheetView>
   </sheetViews>
@@ -17727,13 +19899,13 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="20">
         <v>0.54971237752841839</v>
       </c>
-      <c r="C2" s="23">
+      <c r="C2" s="20">
         <v>0.53093100636194612</v>
       </c>
-      <c r="D2" s="24">
+      <c r="D2" s="21">
         <v>1.0353744101237679</v>
       </c>
     </row>
@@ -17741,13 +19913,13 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="20">
         <v>0.55387018373021479</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="20">
         <v>0.44811199469116514</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="21">
         <v>1.2360083869478595</v>
       </c>
     </row>
@@ -17755,13 +19927,13 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="20">
         <v>0.5901564924004381</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="20">
         <v>0.44933482573596861</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="21">
         <v>1.3134002943880807</v>
       </c>
     </row>
@@ -17769,13 +19941,13 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="20">
         <v>0.62959265425384059</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="20">
         <v>0.44133084071543671</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="21">
         <v>1.4265775154829756</v>
       </c>
     </row>
@@ -17783,13 +19955,13 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="20">
         <v>0.5720133380653265</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="20">
         <v>0.52070369216904422</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="21">
         <v>1.0985390475772252</v>
       </c>
     </row>
@@ -17797,13 +19969,13 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="20">
         <v>0.52363159317169528</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="20">
         <v>0.50914238047272042</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="21">
         <v>1.0284580762762709</v>
       </c>
     </row>
@@ -17811,13 +19983,13 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="20">
         <v>0.53875088845095509</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="20">
         <v>0.44310950405333271</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="21">
         <v>1.2158414196101535</v>
       </c>
     </row>
@@ -17825,13 +19997,13 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="23">
+      <c r="B9" s="20">
         <v>0.56873749075482016</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="20">
         <v>0.43388268798799745</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="21">
         <v>1.3108093650663315</v>
       </c>
     </row>
@@ -17839,13 +20011,13 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="23">
+      <c r="B10" s="20">
         <v>0.53786892955966492</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="20">
         <v>0.48513042541112494</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="21">
         <v>1.1087099497085688</v>
       </c>
     </row>
@@ -17853,13 +20025,13 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="23">
+      <c r="B11" s="20">
         <v>0.51947378696989888</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="20">
         <v>0.43732884820517082</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="21">
         <v>1.1878333412073245</v>
       </c>
     </row>
@@ -17867,13 +20039,13 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="23">
+      <c r="B12" s="20">
         <v>0.58662865683527754</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="20">
         <v>0.3859699443234248</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="21">
         <v>1.519881704425436</v>
       </c>
     </row>
@@ -17881,13 +20053,13 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="23">
+      <c r="B13" s="20">
         <v>0.5886445628725121</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="20">
         <v>0.42632336880193955</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="21">
         <v>1.3807466490207423</v>
       </c>
     </row>
@@ -17895,13 +20067,13 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="20">
         <v>0.48658931973750896</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="20">
         <v>0.40064391686106648</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D14" s="21">
         <v>1.2145181775123426</v>
       </c>
     </row>
@@ -17909,13 +20081,13 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B15" s="20">
         <v>0.40040933664572853</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="20">
         <v>0.39975458519211854</v>
       </c>
-      <c r="D15" s="24">
+      <c r="D15" s="21">
         <v>1.0016378835362083</v>
       </c>
     </row>
@@ -17923,13 +20095,13 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="23">
+      <c r="B16" s="20">
         <v>0.41414269652438945</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="20">
         <v>0.42754619984674302</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="21">
         <v>0.96865016382520031</v>
       </c>
     </row>
@@ -17937,13 +20109,13 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17" s="20">
         <v>0.45559476441502655</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="20">
         <v>0.39497442747152312</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="21">
         <v>1.1534791437804515</v>
       </c>
     </row>
@@ -17951,13 +20123,13 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18" s="20">
         <v>0.40343319570158048</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="20">
         <v>0.373963966792627</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D18" s="21">
         <v>1.0788023219501652</v>
       </c>
     </row>
@@ -17965,13 +20137,13 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="23">
+      <c r="B19" s="20">
         <v>0.43115190371355661</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="20">
         <v>0.35539916820333783</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D19" s="21">
         <v>1.2131483196575115</v>
       </c>
     </row>
@@ -17979,13 +20151,13 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="23">
+      <c r="B20" s="20">
         <v>0.47096604794894059</v>
       </c>
-      <c r="C20" s="23">
+      <c r="C20" s="20">
         <v>0.26479850442926206</v>
       </c>
-      <c r="D20" s="24">
+      <c r="D20" s="21">
         <v>1.7785827339321467</v>
       </c>
     </row>
@@ -17993,13 +20165,13 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="23">
+      <c r="B21" s="20">
         <v>0.36185513368361621</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="20">
         <v>0.27647098258420433</v>
       </c>
-      <c r="D21" s="24">
+      <c r="D21" s="21">
         <v>1.3088358506969409</v>
       </c>
     </row>
@@ -18007,13 +20179,13 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="23">
+      <c r="B22" s="20">
         <v>0.33690829647283765</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C22" s="20">
         <v>0.34294852483806609</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="20">
         <v>0.98238736157829942</v>
       </c>
     </row>
@@ -18021,13 +20193,13 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="23">
+      <c r="B23" s="20">
         <v>0.38201419405596254</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C23" s="20">
         <v>0.36529298302038415</v>
       </c>
-      <c r="D23" s="24">
+      <c r="D23" s="21">
         <v>1.0457747939676283</v>
       </c>
     </row>
@@ -18035,13 +20207,13 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="23">
+      <c r="B24" s="20">
         <v>0.34043613203799827</v>
       </c>
-      <c r="C24" s="23">
+      <c r="C24" s="20">
         <v>0.3202705672798925</v>
       </c>
-      <c r="D24" s="24">
+      <c r="D24" s="21">
         <v>1.0629641522459432</v>
       </c>
     </row>
@@ -18049,13 +20221,13 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="23">
+      <c r="B25" s="20">
         <v>0.29999201716597851</v>
       </c>
-      <c r="C25" s="23">
+      <c r="C25" s="20">
         <v>0.32382789395568445</v>
       </c>
-      <c r="D25" s="23">
+      <c r="D25" s="20">
         <v>0.92639337983352399</v>
       </c>
     </row>
@@ -18063,13 +20235,13 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="23">
+      <c r="B26" s="20">
         <v>0.23497904746516166</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26" s="20">
         <v>0.36595998177209516</v>
       </c>
-      <c r="D26" s="23">
+      <c r="D26" s="20">
         <v>0.64208946105887876</v>
       </c>
     </row>
@@ -18077,13 +20249,13 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="23">
+      <c r="B27" s="20">
         <v>0.26244576722248347</v>
       </c>
-      <c r="C27" s="23">
+      <c r="C27" s="20">
         <v>0.26301984109136611</v>
       </c>
-      <c r="D27" s="23">
+      <c r="D27" s="20">
         <v>0.99781737428438633</v>
       </c>
     </row>
@@ -18091,13 +20263,13 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="23">
+      <c r="B28" s="20">
         <v>0.35769732748181982</v>
       </c>
-      <c r="C28" s="23">
+      <c r="C28" s="20">
         <v>0.12672976282508763</v>
       </c>
-      <c r="D28" s="24">
+      <c r="D28" s="21">
         <v>2.822520294427707</v>
       </c>
     </row>
@@ -18105,13 +20277,13 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="23">
+      <c r="B29" s="20">
         <v>0.29507824620021911</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C29" s="20">
         <v>0.11149995799435342</v>
       </c>
-      <c r="D29" s="24">
+      <c r="D29" s="21">
         <v>2.6464426669574395</v>
       </c>
     </row>
@@ -18119,13 +20291,13 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="23">
+      <c r="B30" s="20">
         <v>0.24694848956124227</v>
       </c>
-      <c r="C30" s="23">
+      <c r="C30" s="20">
         <v>0.1119446238288274</v>
       </c>
-      <c r="D30" s="24">
+      <c r="D30" s="21">
         <v>2.2059879350601683</v>
       </c>
     </row>
@@ -18133,13 +20305,13 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="23">
+      <c r="B31" s="20">
         <v>0.21078817501834607</v>
       </c>
-      <c r="C31" s="23">
+      <c r="C31" s="20">
         <v>0.11639128217356733</v>
       </c>
-      <c r="D31" s="24">
+      <c r="D31" s="21">
         <v>1.8110306122756714</v>
       </c>
     </row>
@@ -18147,13 +20319,13 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="23">
+      <c r="B32" s="20">
         <v>0.14186938737038715</v>
       </c>
-      <c r="C32" s="23">
+      <c r="C32" s="20">
         <v>0.18053432879644063</v>
       </c>
-      <c r="D32" s="23">
+      <c r="D32" s="20">
         <v>0.78583053049345708</v>
       </c>
     </row>
@@ -18161,13 +20333,13 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="23">
+      <c r="B33" s="20">
         <v>0.15283087644785046</v>
       </c>
-      <c r="C33" s="23">
+      <c r="C33" s="20">
         <v>0.20043312488915177</v>
       </c>
-      <c r="D33" s="23">
+      <c r="D33" s="20">
         <v>0.76250308691426416</v>
       </c>
     </row>
